--- a/LinearRegression/LinearRegression_Excel_Dataset(Solution).xlsx
+++ b/LinearRegression/LinearRegression_Excel_Dataset(Solution).xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Projects\11.Udemy\12.MachineLearningFnE\LinearRegression\Resources\Lab1_LinearRegression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bahat\Documents\Visual Studio 2017\PythonProjects\python-training\LinearRegression\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{F54FFC02-EE3A-41AA-9CFF-4C7D14AE9F95}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12135" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
     <sheet name="Copy" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -143,7 +144,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -157,7 +158,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -183,7 +183,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="tr-TR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -243,7 +243,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -269,7 +268,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="tr-TR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -329,6 +328,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2670-4E11-AB43-92CCEFCF59B4}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -396,7 +400,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="382130272"/>
@@ -458,7 +462,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="382129880"/>
@@ -499,7 +503,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="tr-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -511,7 +515,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -525,7 +529,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -551,7 +554,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="tr-TR"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -611,7 +614,6 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -637,7 +639,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="tr-TR"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -697,6 +699,11 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-681C-4409-978E-4E64700AB2FF}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -764,7 +771,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="382131448"/>
@@ -826,7 +833,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="tr-TR"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="382132624"/>
@@ -867,7 +874,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="tr-TR"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2000,11 +2007,17 @@
       <xdr:rowOff>21771</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="180114" cy="153598"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2077,7 +2090,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -2140,7 +2153,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2275,7 +2294,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2408,7 +2433,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2533,7 +2564,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2671,7 +2708,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2809,7 +2852,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="TextBox 7"/>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -2947,7 +2996,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="TextBox 8"/>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3140,7 +3195,13 @@
       <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="TextBox 9"/>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3348,7 +3409,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="39" name="Chart 38"/>
+        <xdr:cNvPr id="39" name="Chart 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -3378,7 +3445,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Picture 39" descr="http://www.statisticshowto.com/wp-content/uploads/2009/11/linearregressionequations.bmp"/>
+        <xdr:cNvPr id="40" name="Picture 39" descr="http://www.statisticshowto.com/wp-content/uploads/2009/11/linearregressionequations.bmp">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3433,7 +3506,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Picture 40"/>
+        <xdr:cNvPr id="41" name="Picture 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -3486,11 +3565,17 @@
       <xdr:rowOff>21771</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="180114" cy="153598"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="2" name="TextBox 1"/>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3563,7 +3648,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -3622,11 +3707,17 @@
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="183127" cy="175369"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="3" name="TextBox 2"/>
+            <xdr:cNvPr id="3" name="TextBox 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3699,7 +3790,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -3758,11 +3849,17 @@
       <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="305405" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4" name="TextBox 3"/>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3827,7 +3924,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -3892,11 +3989,17 @@
       <xdr:rowOff>14287</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="118382" cy="223651"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="5" name="TextBox 4"/>
+            <xdr:cNvPr id="5" name="TextBox 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -3959,7 +4062,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -4018,11 +4121,17 @@
       <xdr:rowOff>25172</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="434068" cy="447238"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="6" name="TextBox 5"/>
+            <xdr:cNvPr id="6" name="TextBox 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4092,7 +4201,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="6" name="TextBox 5"/>
@@ -4157,11 +4266,17 @@
       <xdr:rowOff>25172</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="434068" cy="447238"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="7" name="TextBox 6"/>
+            <xdr:cNvPr id="7" name="TextBox 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4231,7 +4346,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -4296,11 +4411,17 @@
       <xdr:rowOff>25173</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="434068" cy="447238"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="8" name="TextBox 7"/>
+            <xdr:cNvPr id="8" name="TextBox 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4370,7 +4491,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="8" name="TextBox 7"/>
@@ -4435,11 +4556,17 @@
       <xdr:rowOff>30616</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="434068" cy="447238"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="9" name="TextBox 8"/>
+            <xdr:cNvPr id="9" name="TextBox 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000009000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4546,7 +4673,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9" name="TextBox 8"/>
@@ -4617,11 +4744,17 @@
       <xdr:rowOff>30615</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="434068" cy="447238"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="10" name="TextBox 9"/>
+            <xdr:cNvPr id="10" name="TextBox 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000A000000}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
             <xdr:cNvSpPr txBox="1"/>
           </xdr:nvSpPr>
           <xdr:spPr>
@@ -4728,7 +4861,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="TextBox 9"/>
@@ -4806,7 +4939,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="11" name="Chart 10"/>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -4838,7 +4977,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11" descr="http://www.statisticshowto.com/wp-content/uploads/2009/11/linearregressionequations.bmp"/>
+        <xdr:cNvPr id="12" name="Picture 11" descr="http://www.statisticshowto.com/wp-content/uploads/2009/11/linearregressionequations.bmp">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -4893,7 +5038,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12"/>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -5198,7 +5349,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
@@ -5422,7 +5573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
@@ -5521,7 +5672,7 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3">
-        <f t="shared" ref="C9:F9" si="0">SUM(D2:D7)</f>
+        <f t="shared" ref="D9:F9" si="0">SUM(D2:D7)</f>
         <v>0</v>
       </c>
       <c r="E9" s="3">
